--- a/Economia/HORARIOS ECONOMIA.xlsx
+++ b/Economia/HORARIOS ECONOMIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B7BAE-DA2C-4820-A70F-77187307EC14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA24D55A-45CE-457F-8B23-B8505A0CE1A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="IX" sheetId="9" r:id="rId9"/>
     <sheet name="X" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="112">
   <si>
     <t>HORA</t>
   </si>
@@ -207,9 +207,6 @@
     <t>EC404</t>
   </si>
   <si>
-    <t>EC512</t>
-  </si>
-  <si>
     <t>EC506</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>EC108</t>
   </si>
   <si>
-    <t>EC</t>
-  </si>
-  <si>
     <t>EC701</t>
   </si>
   <si>
@@ -277,6 +271,105 @@
   </si>
   <si>
     <t>EC001</t>
+  </si>
+  <si>
+    <t>EC112</t>
+  </si>
+  <si>
+    <t>EC605</t>
+  </si>
+  <si>
+    <t>EC606</t>
+  </si>
+  <si>
+    <t>EC607</t>
+  </si>
+  <si>
+    <t>EC608</t>
+  </si>
+  <si>
+    <t>EC703</t>
+  </si>
+  <si>
+    <t>Nº G</t>
+  </si>
+  <si>
+    <t>ELECTIVA I EC604 ( la componen 5 materias para elegir)</t>
+  </si>
+  <si>
+    <t>ELECTIVA II EC708 ( la componen 5 materias para elegir)</t>
+  </si>
+  <si>
+    <t>Electiva II, que ofrece 5 asig para elegir</t>
+  </si>
+  <si>
+    <t>ELECTIVA I , que ofrece 5 asig para elegir</t>
+  </si>
+  <si>
+    <t>EC706</t>
+  </si>
+  <si>
+    <t>EC707</t>
+  </si>
+  <si>
+    <t>EC709</t>
+  </si>
+  <si>
+    <t>EC710</t>
+  </si>
+  <si>
+    <t>EC711</t>
+  </si>
+  <si>
+    <t>EC704</t>
+  </si>
+  <si>
+    <t>EC705</t>
+  </si>
+  <si>
+    <t>EC805</t>
+  </si>
+  <si>
+    <t>EC804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electiva III </t>
+  </si>
+  <si>
+    <t>EC123</t>
+  </si>
+  <si>
+    <t>EC609</t>
+  </si>
+  <si>
+    <t>EC808</t>
+  </si>
+  <si>
+    <t>EC809</t>
+  </si>
+  <si>
+    <t>ELECTIVA III EC807 ( la componen 4 materias para elegir)</t>
+  </si>
+  <si>
+    <t>Electiva IV (Actividad Cultural y deportiva )</t>
+  </si>
+  <si>
+    <t>EC904</t>
+  </si>
+  <si>
+    <t>EC905</t>
+  </si>
+  <si>
+    <t>ELECTIVA V ( Nos las ofrecen otros programas INTRAFACULTAD)</t>
+  </si>
+  <si>
+    <t>Las demas asignaturas del primer semetsre nos las ofrecen otros programas servidores</t>
+  </si>
+  <si>
+    <t>Las demas asignaturas del 2do semetre nos las ofrecen otros programas servidores</t>
+  </si>
+  <si>
+    <t>Practica Empresarial y Social</t>
   </si>
 </sst>
 </file>
@@ -308,7 +401,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -514,11 +607,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -563,32 +958,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -904,11 +1440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25AAA-D2BB-4E62-8CC7-02DE57045219}">
-  <dimension ref="A2:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,106 +1462,83 @@
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="20" t="s">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="P5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="Q5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="R5" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>2</v>
-      </c>
-      <c r="R5" s="11">
-        <v>40</v>
-      </c>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="P6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>2</v>
-      </c>
-      <c r="R6" s="12">
-        <v>40</v>
-      </c>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="51"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1041,18 +1554,18 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="P7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>4</v>
-      </c>
-      <c r="R7" s="12">
+      <c r="O7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="11">
         <v>40</v>
       </c>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1068,18 +1581,18 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>3</v>
-      </c>
-      <c r="R8" s="12">
+      <c r="O8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="12">
         <v>40</v>
       </c>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1095,18 +1608,18 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>3</v>
-      </c>
-      <c r="R9" s="12">
+      <c r="O9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12">
         <v>40</v>
       </c>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1122,18 +1635,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="O10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="9">
         <v>3</v>
       </c>
-      <c r="R10" s="12">
+      <c r="Q10" s="12">
         <v>40</v>
       </c>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1149,18 +1662,18 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="P11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="10">
+      <c r="O11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="9">
         <v>3</v>
       </c>
-      <c r="R11" s="13">
+      <c r="Q11" s="12">
         <v>40</v>
       </c>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1176,8 +1689,20 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>40</v>
+      </c>
+      <c r="R12" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1193,8 +1718,18 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>40</v>
+      </c>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1210,8 +1745,14 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1227,8 +1768,12 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1244,6 +1789,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1348,7 +1897,10 @@
       <c r="M22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O14:R16"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1360,12 +1912,10 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1373,11 +1923,1845 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7EF15-3D56-4548-966A-D4C6D4BC0FE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>40</v>
+      </c>
+      <c r="R6" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>40</v>
+      </c>
+      <c r="R7" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>40</v>
+      </c>
+      <c r="R8" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>40</v>
+      </c>
+      <c r="R9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="33"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>40</v>
+      </c>
+      <c r="R10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="O14" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O14:R16"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>40</v>
+      </c>
+      <c r="R6" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>40</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>40</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>40</v>
+      </c>
+      <c r="R9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>40</v>
+      </c>
+      <c r="R6" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>40</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>40</v>
+      </c>
+      <c r="R8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>40</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,76 +3776,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1480,13 +3864,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="11">
         <v>40</v>
       </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+      <c r="R6" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1505,13 +3893,17 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>40</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1530,13 +3922,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P8" s="9">
         <v>3</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="12">
+        <v>40</v>
+      </c>
+      <c r="R8" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1555,13 +3951,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="P9" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>40</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1579,10 +3979,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>40</v>
+      </c>
+      <c r="R10" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1781,120 +4189,123 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
-  <dimension ref="A3:S21"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="O4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="P4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="Q4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="R4" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1910,16 +4321,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="P6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>2</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1935,16 +4346,20 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="P7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="9">
+      <c r="O7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="9">
         <v>4</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q7" s="17">
+        <v>40</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1960,16 +4375,20 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="P8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>3</v>
-      </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>40</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1985,16 +4404,20 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="9">
+      <c r="O9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>40</v>
+      </c>
+      <c r="R9" s="9">
         <v>2</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2010,16 +4433,20 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="P10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="O10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="9">
         <v>4</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q10" s="17">
+        <v>40</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2035,16 +4462,16 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="P11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>2</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -2060,16 +4487,8 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="P12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2085,12 +4504,8 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -2106,8 +4521,14 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -2123,8 +4544,20 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -2140,8 +4573,20 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>40</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2157,8 +4602,20 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>40</v>
+      </c>
+      <c r="R17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2174,8 +4631,20 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>40</v>
+      </c>
+      <c r="R18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +4660,20 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>40</v>
+      </c>
+      <c r="R19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +4689,20 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>40</v>
+      </c>
+      <c r="R20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2227,454 +4720,12 @@
       <c r="M21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
+  <mergeCells count="19">
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B34897-C3CC-413D-A044-78825B535787}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="P11:R11"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2689,104 +4740,106 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98090E5B-EC8F-4FB3-8BA2-B9CF7E7F622B}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2805,13 +4858,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P6" s="8">
         <v>4</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="11">
+        <v>40</v>
+      </c>
+      <c r="R6" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2830,13 +4887,17 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="O7" s="9" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>40</v>
+      </c>
+      <c r="R7" s="31">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2855,13 +4916,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="O8" s="9" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>40</v>
+      </c>
+      <c r="R8" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2880,13 +4945,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="O9" s="9" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="P9" s="9">
         <v>4</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="12">
+        <v>40</v>
+      </c>
+      <c r="R9" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2905,15 +4974,19 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="9" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>40</v>
+      </c>
+      <c r="R10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2929,14 +5002,14 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
+      <c r="O11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2954,10 +5027,6 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -2975,10 +5044,6 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2996,6 +5061,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
+      <c r="O14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3013,6 +5084,18 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
+      <c r="O15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3030,8 +5113,20 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>40</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -3047,8 +5142,20 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>40</v>
+      </c>
+      <c r="R17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3064,8 +5171,20 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>40</v>
+      </c>
+      <c r="R18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -3081,8 +5200,20 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>40</v>
+      </c>
+      <c r="R19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +5229,20 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>40</v>
+      </c>
+      <c r="R20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -3117,7 +5260,12 @@
       <c r="M21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="P11:R11"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3132,104 +5280,104 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20AA679-064E-4D53-A849-351642C46016}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3247,14 +5395,18 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="O6" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="38">
         <v>4</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="38">
+        <v>40</v>
+      </c>
+      <c r="R6" s="39">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -3272,14 +5424,18 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="O7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="21">
         <v>4</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="21">
+        <v>40</v>
+      </c>
+      <c r="R7" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3297,14 +5453,18 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
+      <c r="O8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="22">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>40</v>
+      </c>
+      <c r="R8" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3322,14 +5482,18 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="9">
+      <c r="O9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="22">
         <v>4</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="22">
+        <v>40</v>
+      </c>
+      <c r="R9" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3347,14 +5511,14 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
+      <c r="O10" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3372,10 +5536,14 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
+      <c r="O11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -3393,12 +5561,16 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -3415,7 +5587,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -3431,6 +5603,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
+      <c r="O14" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3448,6 +5626,18 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
+      <c r="O15" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3465,8 +5655,20 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>40</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -3482,8 +5684,20 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>40</v>
+      </c>
+      <c r="R17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3499,8 +5713,20 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>40</v>
+      </c>
+      <c r="R18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -3516,8 +5742,20 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>40</v>
+      </c>
+      <c r="R19" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3533,8 +5771,12 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -3552,7 +5794,14 @@
       <c r="M21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P10:R10"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3566,1330 +5815,17 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE898E07-6592-4066-911E-CF5F3C3D4840}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064AE008-59FD-4E5B-9BC0-E22A9BBCAEEE}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC99442-6ED8-4791-9340-3655DBBA79CB}">
-  <dimension ref="A3:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D77BECE-C5E5-4AC8-A998-3520FF4F3F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4904,80 +5840,80 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4996,14 +5932,14 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -5291,7 +6227,11 @@
       <c r="M21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="P6:S6"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -5307,9 +6247,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Economia/HORARIOS ECONOMIA.xlsx
+++ b/Economia/HORARIOS ECONOMIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA24D55A-45CE-457F-8B23-B8505A0CE1A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39496D-3683-4FA6-B3EE-021763B96A98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="117">
   <si>
     <t>HORA</t>
   </si>
@@ -370,6 +370,21 @@
   </si>
   <si>
     <t>Practica Empresarial y Social</t>
+  </si>
+  <si>
+    <t>FACE201(07)</t>
+  </si>
+  <si>
+    <t>303H</t>
+  </si>
+  <si>
+    <t>FACE201(08)</t>
+  </si>
+  <si>
+    <t>402H</t>
+  </si>
+  <si>
+    <t>203H</t>
   </si>
 </sst>
 </file>
@@ -393,12 +408,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="39">
@@ -913,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1037,6 +1058,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,18 +1093,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,6 +1120,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,24 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1444,7 +1479,7 @@
   <dimension ref="A4:R22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:R16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,76 +1502,76 @@
   <sheetData>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="54"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1745,12 +1780,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1768,10 +1803,10 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1789,10 +1824,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1898,9 +1933,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O14:R16"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1908,14 +1945,12 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O14:R16"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1926,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -1947,76 +1982,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2178,11 +2213,11 @@
       <c r="O11" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="74" t="s">
+      <c r="P11" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="66"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2383,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,76 +2435,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2537,14 +2572,18 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="49">
         <v>3</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="9"/>
+      <c r="Q8" s="50">
+        <v>35</v>
+      </c>
+      <c r="R8" s="49">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2600,22 +2639,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
       <c r="O11" s="9" t="s">
         <v>35</v>
       </c>
@@ -2626,21 +2665,21 @@
       <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="O12" s="14" t="s">
         <v>42</v>
       </c>
@@ -2651,48 +2690,56 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="O14" s="45" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="O14" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2702,18 +2749,22 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2731,44 +2782,48 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2791,8 +2846,12 @@
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2808,8 +2867,12 @@
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2823,9 +2886,7 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O14:R16"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2838,9 +2899,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O14:R16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2851,7 +2914,7 @@
   <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,76 +2929,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3325,76 +3388,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3776,76 +3839,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4234,76 +4297,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4465,11 +4528,11 @@
       <c r="O11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="57"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -4521,12 +4584,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="O14" s="52" t="s">
+      <c r="O14" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="60"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -4726,6 +4789,8 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="P11:R11"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -4738,8 +4803,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4770,76 +4833,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5005,11 +5068,11 @@
       <c r="O11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="66"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -5061,12 +5124,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="O14" s="52" t="s">
+      <c r="O14" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="60"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -5266,6 +5329,8 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="P11:R11"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -5278,8 +5343,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5308,76 +5371,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="71" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="70"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5514,11 +5577,11 @@
       <c r="O10" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="64" t="s">
+      <c r="P10" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -5539,11 +5602,11 @@
       <c r="O11" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="64" t="s">
+      <c r="P11" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="57"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -5603,12 +5666,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="O14" s="61" t="s">
+      <c r="O14" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -5802,6 +5865,7 @@
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="P10:R10"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -5814,7 +5878,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5840,80 +5903,80 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5934,12 +5997,12 @@
       <c r="O6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="71" t="s">
+      <c r="P6" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="79"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -6233,11 +6296,6 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -6247,6 +6305,11 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
